--- a/backend/dataset/DavOr_Tourist_dataset.xlsx
+++ b/backend/dataset/DavOr_Tourist_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. School Final Project\ITBAN-3-and-4\backend\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE0D5425-7685-4AB7-BFAD-3297FA735AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD9C870-8CC2-420A-808F-9D7B082CE8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D4F977D9-65AB-42AE-A761-7675C8EF6EFE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="86">
   <si>
     <t>destination_name</t>
   </si>
@@ -40,50 +40,272 @@
     <t>travel_season</t>
   </si>
   <si>
-    <t>group_size</t>
-  </si>
-  <si>
     <t>Sleeping Dinosaur Viewpoint</t>
   </si>
   <si>
     <t>Amihan sa Dahican</t>
   </si>
   <si>
+    <t>Pujada Island</t>
+  </si>
+  <si>
     <t>Subangan Museum</t>
   </si>
   <si>
+    <t>Mayo Beach</t>
+  </si>
+  <si>
+    <t>Waniban Island</t>
+  </si>
+  <si>
     <t>Mt. Hamiguitan</t>
   </si>
   <si>
     <t>Guang-Guang Mangrove Park</t>
   </si>
   <si>
+    <t>Oak Island</t>
+  </si>
+  <si>
     <t>municipaity</t>
   </si>
   <si>
-    <t>Dahican 1</t>
-  </si>
-  <si>
-    <t>Mayo 1</t>
-  </si>
-  <si>
-    <t>Pujada 6</t>
-  </si>
-  <si>
-    <t>Waniban 6</t>
-  </si>
-  <si>
-    <t>Oak 6</t>
+    <t>travel_purpose</t>
+  </si>
+  <si>
+    <t>Botona Beach Resort</t>
+  </si>
+  <si>
+    <t>Gregorio Beach</t>
+  </si>
+  <si>
+    <t>Danao Lake</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Panontongan Ridge</t>
+  </si>
+  <si>
+    <t>Mountain Ridge</t>
+  </si>
+  <si>
+    <t>Bidayan Falls</t>
+  </si>
+  <si>
+    <t>Waterfall</t>
+  </si>
+  <si>
+    <t>Lake Diomaboc</t>
+  </si>
+  <si>
+    <t>Lapinigan River</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Mabaho Cave</t>
+  </si>
+  <si>
+    <t>Cave</t>
+  </si>
+  <si>
+    <t>Tagdalid Falls</t>
+  </si>
+  <si>
+    <t>Seawalk Facing the Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Seaside Park</t>
+  </si>
+  <si>
+    <t>WOW Manay Landmark</t>
+  </si>
+  <si>
+    <t>Landmark</t>
+  </si>
+  <si>
+    <t>Rising Sun Beach Resort</t>
+  </si>
+  <si>
+    <t>Beach Resort</t>
+  </si>
+  <si>
+    <t>Bango Beach Resort</t>
+  </si>
+  <si>
+    <t>Dawis Beach Resort</t>
+  </si>
+  <si>
+    <t>Resort Cartagena (Lake Carolina)</t>
+  </si>
+  <si>
+    <t>Sunrise Boulevard Park</t>
+  </si>
+  <si>
+    <t>stop-over place</t>
+  </si>
+  <si>
+    <t>anytime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Victor Island </t>
+  </si>
+  <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>Capawan Falls (Curtain Falls)</t>
+  </si>
+  <si>
+    <t>Falls</t>
+  </si>
+  <si>
+    <t>Aliwagwag Falls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long Beach Cream Sand </t>
+  </si>
+  <si>
+    <t>Beach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahoc Beach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anagacian Falls </t>
+  </si>
+  <si>
+    <t>Kinablangan Floating Cottage</t>
+  </si>
+  <si>
+    <t>Floating Cottage Resort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ban-ao Caves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian J. Nature Resort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature Resort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langoyon Beach &amp; Mangrove Park </t>
+  </si>
+  <si>
+    <t>Mangrove Forrest &amp; Resort</t>
+  </si>
+  <si>
+    <t>Kayabatangan Falls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agosais Falls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapuka Falls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pusan Point </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lighthouse </t>
+  </si>
+  <si>
+    <t>Anytime</t>
+  </si>
+  <si>
+    <t>Batinao's Haven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Surfing Beach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantad Tidal Pool </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mabiga Beach </t>
+  </si>
+  <si>
+    <t>Busay Falls</t>
+  </si>
+  <si>
+    <t>Magpong Falls</t>
+  </si>
+  <si>
+    <t>Jabs Beach Resort</t>
+  </si>
+  <si>
+    <t>Higadan</t>
+  </si>
+  <si>
+    <t>Punta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beach </t>
+  </si>
+  <si>
+    <t>Tugonan Falls and Ecopark</t>
+  </si>
+  <si>
+    <t>Amor Del Carmen Inland Resort</t>
+  </si>
+  <si>
+    <t>Inland Resort</t>
+  </si>
+  <si>
+    <t>Binaroto Rock Formation</t>
+  </si>
+  <si>
+    <t>Caatihan Falls</t>
+  </si>
+  <si>
+    <t>Kabaiyan Cold Spring</t>
+  </si>
+  <si>
+    <t>1 Seawall</t>
+  </si>
+  <si>
+    <t>1 Pacific View Park</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Rainy</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,10 +331,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,244 +669,1291 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DB77E9-BCC0-4A28-A77B-E0C9D847D278}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B4" s="3">
+        <v>2600</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4600</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1600</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B10" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="B11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>500</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="5">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>2600</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1100</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1100</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1800</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4600</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1">
-        <v>6000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1200</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1700</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1200</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1200</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1600</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2">
         <v>4</v>
       </c>
-      <c r="F9" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C10" s="1">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="3">
         <v>4</v>
       </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>9</v>
-      </c>
+      <c r="F43" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="2">
+        <v>100</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="2">
+        <v>700</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="2">
+        <v>800</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="2">
+        <v>300</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="2">
+        <v>300</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="2">
+        <v>300</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
+      <c r="F51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="2">
+        <v>300</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="2">
+        <v>300</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="2">
+        <v>300</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4</v>
+      </c>
+      <c r="F54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="3">
+        <v>2</v>
+      </c>
+      <c r="F56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2</v>
+      </c>
+      <c r="F57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="2">
+        <v>20</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2</v>
+      </c>
+      <c r="F59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="2">
+        <v>20</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="2">
+        <v>20</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2</v>
+      </c>
+      <c r="F61" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="2">
+        <v>20</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2</v>
+      </c>
+      <c r="F62" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E70" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E16 E14 E18" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
